--- a/我的创作/炒股/新化股份.xlsx
+++ b/我的创作/炒股/新化股份.xlsx
@@ -1005,8 +1005,8 @@
   <sheetPr/>
   <dimension ref="A1:P500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
